--- a/[5] Tester Results/ALL_VAR_CORRELATIONS_PARAMETRIC.xlsx
+++ b/[5] Tester Results/ALL_VAR_CORRELATIONS_PARAMETRIC.xlsx
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.1069966541232787</v>
+        <v>0.04241592569308646</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06156904191443568</v>
+        <v>0.4597419817991685</v>
       </c>
       <c r="E2" t="n">
         <v>306</v>
@@ -493,10 +493,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.4903101996994443</v>
+        <v>-0.001861021359849217</v>
       </c>
       <c r="D3" t="n">
-        <v>6.514153483819152e-20</v>
+        <v>0.9741360198275199</v>
       </c>
       <c r="E3" t="n">
         <v>306</v>
@@ -514,10 +514,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.3546128997202878</v>
+        <v>-0.01066520486972785</v>
       </c>
       <c r="D4" t="n">
-        <v>1.696763951741325e-10</v>
+        <v>0.8525964077721476</v>
       </c>
       <c r="E4" t="n">
         <v>306</v>
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.354644200936211</v>
+        <v>-0.01026639427374046</v>
       </c>
       <c r="D5" t="n">
-        <v>1.690085017413719e-10</v>
+        <v>0.8580489891333452</v>
       </c>
       <c r="E5" t="n">
         <v>306</v>
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.3523371524509844</v>
+        <v>-0.001871291740952063</v>
       </c>
       <c r="D6" t="n">
-        <v>2.257636562170164e-10</v>
+        <v>0.9739933349711201</v>
       </c>
       <c r="E6" t="n">
         <v>306</v>
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.3495589751368477</v>
+        <v>-0.01386718815181368</v>
       </c>
       <c r="D7" t="n">
-        <v>3.189581085973161e-10</v>
+        <v>0.8090935680153661</v>
       </c>
       <c r="E7" t="n">
         <v>306</v>
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1172279615052721</v>
+        <v>0.2068923819971585</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04042983560286875</v>
+        <v>0.0002686121288510638</v>
       </c>
       <c r="E8" t="n">
         <v>306</v>
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.3269692998208169</v>
+        <v>0.04059522150330353</v>
       </c>
       <c r="D9" t="n">
-        <v>4.684354922069179e-09</v>
+        <v>0.4792485139463066</v>
       </c>
       <c r="E9" t="n">
         <v>306</v>
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.1069966541232787</v>
+        <v>0.04241592569308646</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06156904191443568</v>
+        <v>0.4597419817991685</v>
       </c>
       <c r="E10" t="n">
         <v>306</v>
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.91900632083904</v>
+        <v>0.9990193725724918</v>
       </c>
       <c r="D11" t="n">
-        <v>6.438011901210972e-125</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>306</v>
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.2031787783722086</v>
+        <v>-0.6211668499660735</v>
       </c>
       <c r="D12" t="n">
-        <v>0.000347544195907606</v>
+        <v>4.815175332824213e-34</v>
       </c>
       <c r="E12" t="n">
         <v>306</v>
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1914957172196703</v>
+        <v>-0.6144760704884566</v>
       </c>
       <c r="D13" t="n">
-        <v>0.000759044772850412</v>
+        <v>3.714845848590823e-33</v>
       </c>
       <c r="E13" t="n">
         <v>306</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.2025573786768527</v>
+        <v>-0.6018614090089365</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0003626935876894259</v>
+        <v>1.535981753437843e-31</v>
       </c>
       <c r="E14" t="n">
         <v>306</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.2679017710882767</v>
+        <v>-0.6321758848692305</v>
       </c>
       <c r="D15" t="n">
-        <v>1.990603070925228e-06</v>
+        <v>1.496543022747397e-35</v>
       </c>
       <c r="E15" t="n">
         <v>306</v>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1777510794082094</v>
+        <v>-0.009265148028323155</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001799060049938052</v>
+        <v>0.8717673033711183</v>
       </c>
       <c r="E16" t="n">
         <v>306</v>
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.2508748520322157</v>
+        <v>-0.7358650264747747</v>
       </c>
       <c r="D17" t="n">
-        <v>8.921192980001779e-06</v>
+        <v>2.070701138867749e-53</v>
       </c>
       <c r="E17" t="n">
         <v>306</v>
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.4903101996994443</v>
+        <v>-0.001861021359849217</v>
       </c>
       <c r="D18" t="n">
-        <v>6.514153483819152e-20</v>
+        <v>0.9741360198275199</v>
       </c>
       <c r="E18" t="n">
         <v>306</v>
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.91900632083904</v>
+        <v>0.9990193725724918</v>
       </c>
       <c r="D19" t="n">
-        <v>6.438011901210972e-125</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>306</v>
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.3187132495314446</v>
+        <v>-0.6212526729921013</v>
       </c>
       <c r="D20" t="n">
-        <v>1.185754185845851e-08</v>
+        <v>4.689116841444449e-34</v>
       </c>
       <c r="E20" t="n">
         <v>306</v>
@@ -871,10 +871,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.3084845220532335</v>
+        <v>-0.6145735515749372</v>
       </c>
       <c r="D21" t="n">
-        <v>3.606144671153833e-08</v>
+        <v>3.607157347467932e-33</v>
       </c>
       <c r="E21" t="n">
         <v>306</v>
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.3172661657489129</v>
+        <v>-0.6023195786838472</v>
       </c>
       <c r="D22" t="n">
-        <v>1.391378882279444e-08</v>
+        <v>1.345643412093449e-31</v>
       </c>
       <c r="E22" t="n">
         <v>306</v>
@@ -913,10 +913,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.3734441600465627</v>
+        <v>-0.6321297092859528</v>
       </c>
       <c r="D23" t="n">
-        <v>1.461245338790199e-11</v>
+        <v>1.518935645983314e-35</v>
       </c>
       <c r="E23" t="n">
         <v>306</v>
@@ -934,10 +934,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.1093299391588362</v>
+        <v>-0.01844193032372607</v>
       </c>
       <c r="D24" t="n">
-        <v>0.05608224447724658</v>
+        <v>0.7479761971757747</v>
       </c>
       <c r="E24" t="n">
         <v>306</v>
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.3495614646551291</v>
+        <v>-0.7383255774146702</v>
       </c>
       <c r="D25" t="n">
-        <v>3.188598345620684e-10</v>
+        <v>6.17114625513727e-54</v>
       </c>
       <c r="E25" t="n">
         <v>306</v>
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.3546128997202878</v>
+        <v>-0.01066520486972785</v>
       </c>
       <c r="D26" t="n">
-        <v>1.696763951741325e-10</v>
+        <v>0.8525964077721476</v>
       </c>
       <c r="E26" t="n">
         <v>306</v>
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.2031787783722086</v>
+        <v>-0.6211668499660735</v>
       </c>
       <c r="D27" t="n">
-        <v>0.000347544195907606</v>
+        <v>4.815175332824213e-34</v>
       </c>
       <c r="E27" t="n">
         <v>306</v>
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.3187132495314446</v>
+        <v>-0.6212526729921013</v>
       </c>
       <c r="D28" t="n">
-        <v>1.185754185845851e-08</v>
+        <v>4.689116841444449e-34</v>
       </c>
       <c r="E28" t="n">
         <v>306</v>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.9996922204089824</v>
+        <v>0.9991412815943842</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.9960372235536116</v>
+        <v>0.9951758526342434</v>
       </c>
       <c r="D30" t="n">
-        <v>1.521722189191039e-321</v>
+        <v>1.378154402761003e-308</v>
       </c>
       <c r="E30" t="n">
         <v>306</v>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.9758989416307959</v>
+        <v>0.9965083610979691</v>
       </c>
       <c r="D31" t="n">
-        <v>4.970481822933813e-203</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>306</v>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.3412446424069986</v>
+        <v>-0.01957674758850786</v>
       </c>
       <c r="D32" t="n">
-        <v>8.7941501202656e-10</v>
+        <v>0.73304007098308</v>
       </c>
       <c r="E32" t="n">
         <v>306</v>
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.8807690343509047</v>
+        <v>0.9582093212330509</v>
       </c>
       <c r="D33" t="n">
-        <v>1.05926078904798e-100</v>
+        <v>2.787514808612394e-167</v>
       </c>
       <c r="E33" t="n">
         <v>306</v>
@@ -1144,10 +1144,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.354644200936211</v>
+        <v>-0.01026639427374046</v>
       </c>
       <c r="D34" t="n">
-        <v>1.690085017413719e-10</v>
+        <v>0.8580489891333452</v>
       </c>
       <c r="E34" t="n">
         <v>306</v>
@@ -1165,10 +1165,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.1914957172196703</v>
+        <v>-0.6144760704884566</v>
       </c>
       <c r="D35" t="n">
-        <v>0.000759044772850412</v>
+        <v>3.714845848590823e-33</v>
       </c>
       <c r="E35" t="n">
         <v>306</v>
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.3084845220532335</v>
+        <v>-0.6145735515749372</v>
       </c>
       <c r="D36" t="n">
-        <v>3.606144671153833e-08</v>
+        <v>3.607157347467932e-33</v>
       </c>
       <c r="E36" t="n">
         <v>306</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.9996922204089824</v>
+        <v>0.9991412815943842</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -1228,10 +1228,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.99567283589323</v>
+        <v>0.9962523270214613</v>
       </c>
       <c r="D38" t="n">
-        <v>9.517202840006245e-316</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>306</v>
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.9744972050070232</v>
+        <v>0.995017333874971</v>
       </c>
       <c r="D39" t="n">
-        <v>2.410040653606391e-199</v>
+        <v>1.855185110892979e-306</v>
       </c>
       <c r="E39" t="n">
         <v>306</v>
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-0.3434580868492152</v>
+        <v>-0.0185104165569507</v>
       </c>
       <c r="D40" t="n">
-        <v>6.732831405773535e-10</v>
+        <v>0.7470720634181561</v>
       </c>
       <c r="E40" t="n">
         <v>306</v>
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.8794210265991099</v>
+        <v>0.9551875231468208</v>
       </c>
       <c r="D41" t="n">
-        <v>5.253820252005301e-100</v>
+        <v>8.978440340768156e-163</v>
       </c>
       <c r="E41" t="n">
         <v>306</v>
@@ -1312,10 +1312,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-0.3523371524509844</v>
+        <v>-0.001871291740952063</v>
       </c>
       <c r="D42" t="n">
-        <v>2.257636562170164e-10</v>
+        <v>0.9739933349711201</v>
       </c>
       <c r="E42" t="n">
         <v>306</v>
@@ -1333,10 +1333,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.2025573786768527</v>
+        <v>-0.6018614090089365</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0003626935876894259</v>
+        <v>1.535981753437843e-31</v>
       </c>
       <c r="E43" t="n">
         <v>306</v>
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.3172661657489129</v>
+        <v>-0.6023195786838472</v>
       </c>
       <c r="D44" t="n">
-        <v>1.391378882279444e-08</v>
+        <v>1.345643412093449e-31</v>
       </c>
       <c r="E44" t="n">
         <v>306</v>
@@ -1375,10 +1375,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.9960372235536116</v>
+        <v>0.9951758526342434</v>
       </c>
       <c r="D45" t="n">
-        <v>1.521722189191039e-321</v>
+        <v>1.378154402761003e-308</v>
       </c>
       <c r="E45" t="n">
         <v>306</v>
@@ -1396,10 +1396,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.99567283589323</v>
+        <v>0.9962523270214613</v>
       </c>
       <c r="D46" t="n">
-        <v>9.517202840006245e-316</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>306</v>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.9715185789609414</v>
+        <v>0.9896960545171379</v>
       </c>
       <c r="D47" t="n">
-        <v>3.764565720329435e-192</v>
+        <v>1.139564227294702e-258</v>
       </c>
       <c r="E47" t="n">
         <v>306</v>
@@ -1438,10 +1438,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-0.340293735327069</v>
+        <v>-0.02448715714197653</v>
       </c>
       <c r="D48" t="n">
-        <v>9.857048648955727e-10</v>
+        <v>0.669626116826522</v>
       </c>
       <c r="E48" t="n">
         <v>306</v>
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.8786669633709284</v>
+        <v>0.9476588449774925</v>
       </c>
       <c r="D49" t="n">
-        <v>1.276119388173037e-99</v>
+        <v>8.984087107257754e-153</v>
       </c>
       <c r="E49" t="n">
         <v>306</v>
@@ -1480,10 +1480,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-0.3495589751368477</v>
+        <v>-0.01386718815181368</v>
       </c>
       <c r="D50" t="n">
-        <v>3.189581085973161e-10</v>
+        <v>0.8090935680153661</v>
       </c>
       <c r="E50" t="n">
         <v>306</v>
@@ -1501,10 +1501,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.2679017710882767</v>
+        <v>-0.6321758848692305</v>
       </c>
       <c r="D51" t="n">
-        <v>1.990603070925228e-06</v>
+        <v>1.496543022747397e-35</v>
       </c>
       <c r="E51" t="n">
         <v>306</v>
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.3734441600465627</v>
+        <v>-0.6321297092859528</v>
       </c>
       <c r="D52" t="n">
-        <v>1.461245338790199e-11</v>
+        <v>1.518935645983314e-35</v>
       </c>
       <c r="E52" t="n">
         <v>306</v>
@@ -1543,10 +1543,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.9758989416307959</v>
+        <v>0.9965083610979691</v>
       </c>
       <c r="D53" t="n">
-        <v>4.970481822933813e-203</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
         <v>306</v>
@@ -1564,10 +1564,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.9744972050070232</v>
+        <v>0.995017333874971</v>
       </c>
       <c r="D54" t="n">
-        <v>2.410040653606391e-199</v>
+        <v>1.855185110892979e-306</v>
       </c>
       <c r="E54" t="n">
         <v>306</v>
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.9715185789609414</v>
+        <v>0.9896960545171379</v>
       </c>
       <c r="D55" t="n">
-        <v>3.764565720329435e-192</v>
+        <v>1.139564227294702e-258</v>
       </c>
       <c r="E55" t="n">
         <v>306</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-0.170495700797594</v>
+        <v>-0.01802648419111811</v>
       </c>
       <c r="D56" t="n">
-        <v>0.002769850837410498</v>
+        <v>0.7534681399932786</v>
       </c>
       <c r="E56" t="n">
         <v>306</v>
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.9541753533867191</v>
+        <v>0.9666377585712488</v>
       </c>
       <c r="D57" t="n">
-        <v>2.4768639865788e-161</v>
+        <v>7.172673344825911e-182</v>
       </c>
       <c r="E57" t="n">
         <v>306</v>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.1172279615052721</v>
+        <v>0.2068923819971585</v>
       </c>
       <c r="D58" t="n">
-        <v>0.04042983560286875</v>
+        <v>0.0002686121288510638</v>
       </c>
       <c r="E58" t="n">
         <v>306</v>
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.1777510794082094</v>
+        <v>-0.009265148028323155</v>
       </c>
       <c r="D59" t="n">
-        <v>0.001799060049938052</v>
+        <v>0.8717673033711183</v>
       </c>
       <c r="E59" t="n">
         <v>306</v>
@@ -1690,10 +1690,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.1093299391588362</v>
+        <v>-0.01844193032372607</v>
       </c>
       <c r="D60" t="n">
-        <v>0.05608224447724658</v>
+        <v>0.7479761971757747</v>
       </c>
       <c r="E60" t="n">
         <v>306</v>
@@ -1711,10 +1711,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-0.3412446424069986</v>
+        <v>-0.01957674758850786</v>
       </c>
       <c r="D61" t="n">
-        <v>8.7941501202656e-10</v>
+        <v>0.73304007098308</v>
       </c>
       <c r="E61" t="n">
         <v>306</v>
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>-0.3434580868492152</v>
+        <v>-0.0185104165569507</v>
       </c>
       <c r="D62" t="n">
-        <v>6.732831405773535e-10</v>
+        <v>0.7470720634181561</v>
       </c>
       <c r="E62" t="n">
         <v>306</v>
@@ -1753,10 +1753,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>-0.340293735327069</v>
+        <v>-0.02448715714197653</v>
       </c>
       <c r="D63" t="n">
-        <v>9.857048648955727e-10</v>
+        <v>0.669626116826522</v>
       </c>
       <c r="E63" t="n">
         <v>306</v>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>-0.170495700797594</v>
+        <v>-0.01802648419111811</v>
       </c>
       <c r="D64" t="n">
-        <v>0.002769850837410498</v>
+        <v>0.7534681399932786</v>
       </c>
       <c r="E64" t="n">
         <v>306</v>
@@ -1795,10 +1795,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.08542324906058285</v>
+        <v>0.03535598767055616</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1359858338874683</v>
+        <v>0.5378030211240713</v>
       </c>
       <c r="E65" t="n">
         <v>306</v>
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>-0.3269692998208169</v>
+        <v>0.04059522150330353</v>
       </c>
       <c r="D66" t="n">
-        <v>4.684354922069179e-09</v>
+        <v>0.4792485139463066</v>
       </c>
       <c r="E66" t="n">
         <v>306</v>
@@ -1837,10 +1837,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.2508748520322157</v>
+        <v>-0.7358650264747747</v>
       </c>
       <c r="D67" t="n">
-        <v>8.921192980001779e-06</v>
+        <v>2.070701138867749e-53</v>
       </c>
       <c r="E67" t="n">
         <v>306</v>
@@ -1858,10 +1858,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.3495614646551291</v>
+        <v>-0.7383255774146702</v>
       </c>
       <c r="D68" t="n">
-        <v>3.188598345620684e-10</v>
+        <v>6.17114625513727e-54</v>
       </c>
       <c r="E68" t="n">
         <v>306</v>
@@ -1879,10 +1879,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.8807690343509047</v>
+        <v>0.9582093212330509</v>
       </c>
       <c r="D69" t="n">
-        <v>1.05926078904798e-100</v>
+        <v>2.787514808612394e-167</v>
       </c>
       <c r="E69" t="n">
         <v>306</v>
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.8794210265991099</v>
+        <v>0.9551875231468208</v>
       </c>
       <c r="D70" t="n">
-        <v>5.253820252005301e-100</v>
+        <v>8.978440340768156e-163</v>
       </c>
       <c r="E70" t="n">
         <v>306</v>
@@ -1921,10 +1921,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.8786669633709284</v>
+        <v>0.9476588449774925</v>
       </c>
       <c r="D71" t="n">
-        <v>1.276119388173037e-99</v>
+        <v>8.984087107257754e-153</v>
       </c>
       <c r="E71" t="n">
         <v>306</v>
@@ -1942,10 +1942,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.9541753533867191</v>
+        <v>0.9666377585712488</v>
       </c>
       <c r="D72" t="n">
-        <v>2.4768639865788e-161</v>
+        <v>7.172673344825911e-182</v>
       </c>
       <c r="E72" t="n">
         <v>306</v>
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.08542324906058285</v>
+        <v>0.03535598767055616</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1359858338874683</v>
+        <v>0.5378030211240713</v>
       </c>
       <c r="E73" t="n">
         <v>306</v>

--- a/[5] Tester Results/ALL_VAR_CORRELATIONS_PARAMETRIC.xlsx
+++ b/[5] Tester Results/ALL_VAR_CORRELATIONS_PARAMETRIC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,14 +468,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.04241592569308646</v>
+        <v>-0.6211668499660735</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4597419817991685</v>
+        <v>4.815175332824213e-34</v>
       </c>
       <c r="E2" t="n">
         <v>306</v>
@@ -489,14 +489,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.001861021359849217</v>
+        <v>-0.6144760704884566</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9741360198275199</v>
+        <v>3.714845848590823e-33</v>
       </c>
       <c r="E3" t="n">
         <v>306</v>
@@ -510,14 +510,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.01066520486972785</v>
+        <v>-0.6018614090089365</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8525964077721476</v>
+        <v>1.535981753437843e-31</v>
       </c>
       <c r="E4" t="n">
         <v>306</v>
@@ -531,14 +531,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.01026639427374046</v>
+        <v>-0.6321758848692305</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8580489891333452</v>
+        <v>1.496543022747397e-35</v>
       </c>
       <c r="E5" t="n">
         <v>306</v>
@@ -552,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.001871291740952063</v>
+        <v>-0.009265148028323155</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9739933349711201</v>
+        <v>0.8717673033711183</v>
       </c>
       <c r="E6" t="n">
         <v>306</v>
@@ -573,14 +573,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.01386718815181368</v>
+        <v>-0.7358650264747747</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8090935680153661</v>
+        <v>2.070701138867749e-53</v>
       </c>
       <c r="E7" t="n">
         <v>306</v>
@@ -589,19 +589,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>peakValue</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>reactionTime</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
       <c r="C8" t="n">
-        <v>0.2068923819971585</v>
+        <v>-0.6211668499660735</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0002686121288510638</v>
+        <v>4.815175332824213e-34</v>
       </c>
       <c r="E8" t="n">
         <v>306</v>
@@ -610,19 +610,19 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.04059522150330353</v>
+        <v>0.9991412815943842</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4792485139463066</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>306</v>
@@ -631,19 +631,19 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.04241592569308646</v>
+        <v>0.9951758526342434</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4597419817991685</v>
+        <v>1.378154402761003e-308</v>
       </c>
       <c r="E10" t="n">
         <v>306</v>
@@ -652,16 +652,16 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9990193725724918</v>
+        <v>0.9965083610979691</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -673,19 +673,19 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.6211668499660735</v>
+        <v>-0.01957674758850786</v>
       </c>
       <c r="D12" t="n">
-        <v>4.815175332824213e-34</v>
+        <v>0.73304007098308</v>
       </c>
       <c r="E12" t="n">
         <v>306</v>
@@ -694,19 +694,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.6144760704884566</v>
+        <v>0.9582093212330509</v>
       </c>
       <c r="D13" t="n">
-        <v>3.714845848590823e-33</v>
+        <v>2.787514808612394e-167</v>
       </c>
       <c r="E13" t="n">
         <v>306</v>
@@ -715,19 +715,19 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.6018614090089365</v>
+        <v>-0.6144760704884566</v>
       </c>
       <c r="D14" t="n">
-        <v>1.535981753437843e-31</v>
+        <v>3.714845848590823e-33</v>
       </c>
       <c r="E14" t="n">
         <v>306</v>
@@ -736,19 +736,19 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.6321758848692305</v>
+        <v>0.9991412815943842</v>
       </c>
       <c r="D15" t="n">
-        <v>1.496543022747397e-35</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>306</v>
@@ -757,19 +757,19 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.009265148028323155</v>
+        <v>0.9962523270214613</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8717673033711183</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>306</v>
@@ -778,19 +778,19 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.7358650264747747</v>
+        <v>0.995017333874971</v>
       </c>
       <c r="D17" t="n">
-        <v>2.070701138867749e-53</v>
+        <v>1.855185110892979e-306</v>
       </c>
       <c r="E17" t="n">
         <v>306</v>
@@ -799,19 +799,19 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.001861021359849217</v>
+        <v>-0.0185104165569507</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9741360198275199</v>
+        <v>0.7470720634181561</v>
       </c>
       <c r="E18" t="n">
         <v>306</v>
@@ -820,19 +820,19 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.9990193725724918</v>
+        <v>0.9551875231468208</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>8.978440340768156e-163</v>
       </c>
       <c r="E19" t="n">
         <v>306</v>
@@ -841,19 +841,19 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.6212526729921013</v>
+        <v>-0.6018614090089365</v>
       </c>
       <c r="D20" t="n">
-        <v>4.689116841444449e-34</v>
+        <v>1.535981753437843e-31</v>
       </c>
       <c r="E20" t="n">
         <v>306</v>
@@ -862,19 +862,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.6145735515749372</v>
+        <v>0.9951758526342434</v>
       </c>
       <c r="D21" t="n">
-        <v>3.607157347467932e-33</v>
+        <v>1.378154402761003e-308</v>
       </c>
       <c r="E21" t="n">
         <v>306</v>
@@ -883,19 +883,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.6023195786838472</v>
+        <v>0.9962523270214613</v>
       </c>
       <c r="D22" t="n">
-        <v>1.345643412093449e-31</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>306</v>
@@ -904,7 +904,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -913,10 +913,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.6321297092859528</v>
+        <v>0.9896960545171379</v>
       </c>
       <c r="D23" t="n">
-        <v>1.518935645983314e-35</v>
+        <v>1.139564227294702e-258</v>
       </c>
       <c r="E23" t="n">
         <v>306</v>
@@ -925,7 +925,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -934,10 +934,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.01844193032372607</v>
+        <v>-0.02448715714197653</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7479761971757747</v>
+        <v>0.669626116826522</v>
       </c>
       <c r="E24" t="n">
         <v>306</v>
@@ -946,7 +946,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.7383255774146702</v>
+        <v>0.9476588449774925</v>
       </c>
       <c r="D25" t="n">
-        <v>6.17114625513727e-54</v>
+        <v>8.984087107257754e-153</v>
       </c>
       <c r="E25" t="n">
         <v>306</v>
@@ -967,7 +967,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.01066520486972785</v>
+        <v>-0.6321758848692305</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8525964077721476</v>
+        <v>1.496543022747397e-35</v>
       </c>
       <c r="E26" t="n">
         <v>306</v>
@@ -988,19 +988,19 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>RMS</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>peakValue</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>peakTime</t>
-        </is>
-      </c>
       <c r="C27" t="n">
-        <v>-0.6211668499660735</v>
+        <v>0.9965083610979691</v>
       </c>
       <c r="D27" t="n">
-        <v>4.815175332824213e-34</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>306</v>
@@ -1009,19 +1009,19 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.6212526729921013</v>
+        <v>0.995017333874971</v>
       </c>
       <c r="D28" t="n">
-        <v>4.689116841444449e-34</v>
+        <v>1.855185110892979e-306</v>
       </c>
       <c r="E28" t="n">
         <v>306</v>
@@ -1030,19 +1030,19 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.9991412815943842</v>
+        <v>0.9896960545171379</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.139564227294702e-258</v>
       </c>
       <c r="E29" t="n">
         <v>306</v>
@@ -1051,19 +1051,19 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.9951758526342434</v>
+        <v>-0.01802648419111811</v>
       </c>
       <c r="D30" t="n">
-        <v>1.378154402761003e-308</v>
+        <v>0.7534681399932786</v>
       </c>
       <c r="E30" t="n">
         <v>306</v>
@@ -1072,19 +1072,19 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.9965083610979691</v>
+        <v>0.9666377585712488</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>7.172673344825911e-182</v>
       </c>
       <c r="E31" t="n">
         <v>306</v>
@@ -1093,19 +1093,19 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.01957674758850786</v>
+        <v>-0.009265148028323155</v>
       </c>
       <c r="D32" t="n">
-        <v>0.73304007098308</v>
+        <v>0.8717673033711183</v>
       </c>
       <c r="E32" t="n">
         <v>306</v>
@@ -1114,19 +1114,19 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>tau</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>peakValue</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
       <c r="C33" t="n">
-        <v>0.9582093212330509</v>
+        <v>-0.01957674758850786</v>
       </c>
       <c r="D33" t="n">
-        <v>2.787514808612394e-167</v>
+        <v>0.73304007098308</v>
       </c>
       <c r="E33" t="n">
         <v>306</v>
@@ -1135,19 +1135,19 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>tau</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>PTPA</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>reactionTime</t>
-        </is>
-      </c>
       <c r="C34" t="n">
-        <v>-0.01026639427374046</v>
+        <v>-0.0185104165569507</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8580489891333452</v>
+        <v>0.7470720634181561</v>
       </c>
       <c r="E34" t="n">
         <v>306</v>
@@ -1156,19 +1156,19 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.6144760704884566</v>
+        <v>-0.02448715714197653</v>
       </c>
       <c r="D35" t="n">
-        <v>3.714845848590823e-33</v>
+        <v>0.669626116826522</v>
       </c>
       <c r="E35" t="n">
         <v>306</v>
@@ -1177,19 +1177,19 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.6145735515749372</v>
+        <v>-0.01802648419111811</v>
       </c>
       <c r="D36" t="n">
-        <v>3.607157347467932e-33</v>
+        <v>0.7534681399932786</v>
       </c>
       <c r="E36" t="n">
         <v>306</v>
@@ -1198,19 +1198,19 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.9991412815943842</v>
+        <v>0.03535598767055616</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.5378030211240713</v>
       </c>
       <c r="E37" t="n">
         <v>306</v>
@@ -1219,19 +1219,19 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.9962523270214613</v>
+        <v>-0.7358650264747747</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>2.070701138867749e-53</v>
       </c>
       <c r="E38" t="n">
         <v>306</v>
@@ -1240,19 +1240,19 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.995017333874971</v>
+        <v>0.9582093212330509</v>
       </c>
       <c r="D39" t="n">
-        <v>1.855185110892979e-306</v>
+        <v>2.787514808612394e-167</v>
       </c>
       <c r="E39" t="n">
         <v>306</v>
@@ -1261,19 +1261,19 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>PTPA</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
       <c r="C40" t="n">
-        <v>-0.0185104165569507</v>
+        <v>0.9551875231468208</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7470720634181561</v>
+        <v>8.978440340768156e-163</v>
       </c>
       <c r="E40" t="n">
         <v>306</v>
@@ -1282,19 +1282,19 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.9551875231468208</v>
+        <v>0.9476588449774925</v>
       </c>
       <c r="D41" t="n">
-        <v>8.978440340768156e-163</v>
+        <v>8.984087107257754e-153</v>
       </c>
       <c r="E41" t="n">
         <v>306</v>
@@ -1303,19 +1303,19 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-0.001871291740952063</v>
+        <v>0.9666377585712488</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9739933349711201</v>
+        <v>7.172673344825911e-182</v>
       </c>
       <c r="E42" t="n">
         <v>306</v>
@@ -1324,651 +1324,21 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-0.6018614090089365</v>
+        <v>0.03535598767055616</v>
       </c>
       <c r="D43" t="n">
-        <v>1.535981753437843e-31</v>
+        <v>0.5378030211240713</v>
       </c>
       <c r="E43" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>PTTA</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>difference</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>-0.6023195786838472</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1.345643412093449e-31</v>
-      </c>
-      <c r="E44" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>PTTA</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>peakValue</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>0.9951758526342434</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1.378154402761003e-308</v>
-      </c>
-      <c r="E45" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>PTTA</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>PTPA</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0.9962523270214613</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>PTTA</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>0.9896960545171379</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1.139564227294702e-258</v>
-      </c>
-      <c r="E47" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>PTTA</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>-0.02448715714197653</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.669626116826522</v>
-      </c>
-      <c r="E48" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>PTTA</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0.9476588449774925</v>
-      </c>
-      <c r="D49" t="n">
-        <v>8.984087107257754e-153</v>
-      </c>
-      <c r="E49" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>reactionTime</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>-0.01386718815181368</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.8090935680153661</v>
-      </c>
-      <c r="E50" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>peakTime</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>-0.6321758848692305</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1.496543022747397e-35</v>
-      </c>
-      <c r="E51" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>difference</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>-0.6321297092859528</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1.518935645983314e-35</v>
-      </c>
-      <c r="E52" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>peakValue</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>0.9965083610979691</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>PTPA</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>0.995017333874971</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1.855185110892979e-306</v>
-      </c>
-      <c r="E54" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>PTTA</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0.9896960545171379</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1.139564227294702e-258</v>
-      </c>
-      <c r="E55" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>-0.01802648419111811</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.7534681399932786</v>
-      </c>
-      <c r="E56" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>0.9666377585712488</v>
-      </c>
-      <c r="D57" t="n">
-        <v>7.172673344825911e-182</v>
-      </c>
-      <c r="E57" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>reactionTime</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0.2068923819971585</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.0002686121288510638</v>
-      </c>
-      <c r="E58" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>peakTime</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>-0.009265148028323155</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.8717673033711183</v>
-      </c>
-      <c r="E59" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>difference</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>-0.01844193032372607</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.7479761971757747</v>
-      </c>
-      <c r="E60" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>peakValue</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>-0.01957674758850786</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.73304007098308</v>
-      </c>
-      <c r="E61" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>PTPA</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>-0.0185104165569507</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.7470720634181561</v>
-      </c>
-      <c r="E62" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>PTTA</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>-0.02448715714197653</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.669626116826522</v>
-      </c>
-      <c r="E63" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>-0.01802648419111811</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.7534681399932786</v>
-      </c>
-      <c r="E64" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>0.03535598767055616</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.5378030211240713</v>
-      </c>
-      <c r="E65" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>reactionTime</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>0.04059522150330353</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.4792485139463066</v>
-      </c>
-      <c r="E66" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>peakTime</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>-0.7358650264747747</v>
-      </c>
-      <c r="D67" t="n">
-        <v>2.070701138867749e-53</v>
-      </c>
-      <c r="E67" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>difference</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>-0.7383255774146702</v>
-      </c>
-      <c r="D68" t="n">
-        <v>6.17114625513727e-54</v>
-      </c>
-      <c r="E68" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>peakValue</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>0.9582093212330509</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2.787514808612394e-167</v>
-      </c>
-      <c r="E69" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>PTPA</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>0.9551875231468208</v>
-      </c>
-      <c r="D70" t="n">
-        <v>8.978440340768156e-163</v>
-      </c>
-      <c r="E70" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>PTTA</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>0.9476588449774925</v>
-      </c>
-      <c r="D71" t="n">
-        <v>8.984087107257754e-153</v>
-      </c>
-      <c r="E71" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>0.9666377585712488</v>
-      </c>
-      <c r="D72" t="n">
-        <v>7.172673344825911e-182</v>
-      </c>
-      <c r="E72" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>0.03535598767055616</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.5378030211240713</v>
-      </c>
-      <c r="E73" t="n">
         <v>306</v>
       </c>
     </row>
